--- a/allTest_mssp3org.xlsx
+++ b/allTest_mssp3org.xlsx
@@ -15,32 +15,29 @@
     <sheet name="odsCountMaxC prod_a2841" sheetId="6" r:id="rId6"/>
     <sheet name="ccsCompare prod_a2841" sheetId="7" r:id="rId7"/>
     <sheet name="dupODSchk prod_a2841" sheetId="8" r:id="rId8"/>
-    <sheet name="assgn0hdr prod_a2841" sheetId="9" r:id="rId9"/>
-    <sheet name="insCountMax prod_a3229" sheetId="10" r:id="rId10"/>
-    <sheet name="insCountMaxC prod_a3229" sheetId="11" r:id="rId11"/>
-    <sheet name="dupInsCheck prod_a3229" sheetId="12" r:id="rId12"/>
-    <sheet name="acoXdupMonth prod_a3229" sheetId="13" r:id="rId13"/>
-    <sheet name="odsCountMax prod_a3229" sheetId="14" r:id="rId14"/>
-    <sheet name="odsCountMaxC prod_a3229" sheetId="15" r:id="rId15"/>
-    <sheet name="ccsCompare prod_a3229" sheetId="16" r:id="rId16"/>
-    <sheet name="dupODSchk prod_a3229" sheetId="17" r:id="rId17"/>
-    <sheet name="assgn0hdr prod_a3229" sheetId="18" r:id="rId18"/>
-    <sheet name="insCountMax prod_a4768" sheetId="19" r:id="rId19"/>
-    <sheet name="insCountMaxC prod_a4768" sheetId="20" r:id="rId20"/>
-    <sheet name="dupInsCheck prod_a4768" sheetId="21" r:id="rId21"/>
-    <sheet name="acoXdupMonth prod_a4768" sheetId="22" r:id="rId22"/>
-    <sheet name="odsCountMax prod_a4768" sheetId="23" r:id="rId23"/>
-    <sheet name="odsCountMaxC prod_a4768" sheetId="24" r:id="rId24"/>
-    <sheet name="ccsCompare prod_a4768" sheetId="25" r:id="rId25"/>
-    <sheet name="dupODSchk prod_a4768" sheetId="26" r:id="rId26"/>
-    <sheet name="assgn0hdr prod_a4768" sheetId="27" r:id="rId27"/>
+    <sheet name="insCountMax prod_a3229" sheetId="9" r:id="rId9"/>
+    <sheet name="insCountMaxC prod_a3229" sheetId="10" r:id="rId10"/>
+    <sheet name="dupInsCheck prod_a3229" sheetId="11" r:id="rId11"/>
+    <sheet name="acoXdupMonth prod_a3229" sheetId="12" r:id="rId12"/>
+    <sheet name="odsCountMax prod_a3229" sheetId="13" r:id="rId13"/>
+    <sheet name="odsCountMaxC prod_a3229" sheetId="14" r:id="rId14"/>
+    <sheet name="ccsCompare prod_a3229" sheetId="15" r:id="rId15"/>
+    <sheet name="dupODSchk prod_a3229" sheetId="16" r:id="rId16"/>
+    <sheet name="insCountMax prod_a4768" sheetId="17" r:id="rId17"/>
+    <sheet name="insCountMaxC prod_a4768" sheetId="18" r:id="rId18"/>
+    <sheet name="dupInsCheck prod_a4768" sheetId="19" r:id="rId19"/>
+    <sheet name="acoXdupMonth prod_a4768" sheetId="20" r:id="rId20"/>
+    <sheet name="odsCountMax prod_a4768" sheetId="21" r:id="rId21"/>
+    <sheet name="odsCountMaxC prod_a4768" sheetId="22" r:id="rId22"/>
+    <sheet name="ccsCompare prod_a4768" sheetId="23" r:id="rId23"/>
+    <sheet name="dupODSchk prod_a4768" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="122">
   <si>
     <t>tableName</t>
   </si>
@@ -393,117 +390,6 @@
     <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
   </si>
   <si>
-    <t>ORGDB</t>
-  </si>
-  <si>
-    <t>LOAD_PERIOD</t>
-  </si>
-  <si>
-    <t>SRC_ASSGN_PERIOD</t>
-  </si>
-  <si>
-    <t>SRC_ASSGN_PERIOD_TYPE_CD</t>
-  </si>
-  <si>
-    <t>SRC_BENE_ASSGN_WINDOW_START_DT</t>
-  </si>
-  <si>
-    <t>SRC_BENE_ASSGN_WINDOW_END_DT</t>
-  </si>
-  <si>
-    <t>SRC_MSSP_ACO_REPORT_PERIOD_START_DT</t>
-  </si>
-  <si>
-    <t>SRC_HCC_START_DT</t>
-  </si>
-  <si>
-    <t>SRC_RISK_SCORE_START_DT</t>
-  </si>
-  <si>
-    <t>SRC_ACO_TRACK</t>
-  </si>
-  <si>
-    <t>SRC_PERFORMANCE_YEAR</t>
-  </si>
-  <si>
-    <t>SRC_CLAIMS_PROCESSED_AS_OF_DT</t>
-  </si>
-  <si>
-    <t>q-2016-2</t>
-  </si>
-  <si>
-    <t>q-2016-3</t>
-  </si>
-  <si>
-    <t>q-2016-4</t>
-  </si>
-  <si>
-    <t>q-2017-1</t>
-  </si>
-  <si>
-    <t>q-2017-2</t>
-  </si>
-  <si>
-    <t>q-2017-3</t>
-  </si>
-  <si>
-    <t>q-2017-4</t>
-  </si>
-  <si>
-    <t>q-2018-1</t>
-  </si>
-  <si>
-    <t>q-2018-2</t>
-  </si>
-  <si>
-    <t>q-2018-3</t>
-  </si>
-  <si>
-    <t>q-2018-4</t>
-  </si>
-  <si>
-    <t>q-2019-1</t>
-  </si>
-  <si>
-    <t>q-2019-4</t>
-  </si>
-  <si>
-    <t>q-2020-1</t>
-  </si>
-  <si>
-    <t>q-2020-2</t>
-  </si>
-  <si>
-    <t>q-2020-3</t>
-  </si>
-  <si>
-    <t>q-2020-4</t>
-  </si>
-  <si>
-    <t>q-2021-1</t>
-  </si>
-  <si>
-    <t>q-2021-3</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2019-A</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>PROD_A3229</t>
   </si>
   <si>
@@ -511,9 +397,6 @@
   </si>
   <si>
     <t>2021-12</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>PROD_A4768</t>
@@ -1245,370 +1128,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>83883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>143513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>479824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>164387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>72175213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>31227487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>282547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>4131324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>10173696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>6242239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>53885750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>8168805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>40873250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>20347392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>221399217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>9741119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>7470760</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>4590020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>221399217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1652,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2">
         <v>44673</v>
@@ -1664,7 +1183,7 @@
         <v>83883</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2">
         <v>44608</v>
@@ -1684,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2">
         <v>44673</v>
@@ -1696,7 +1215,7 @@
         <v>143513</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2">
         <v>44608</v>
@@ -1716,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2">
         <v>44673</v>
@@ -1728,7 +1247,7 @@
         <v>479824</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2">
         <v>44608</v>
@@ -1748,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2">
         <v>44673</v>
@@ -1760,7 +1279,7 @@
         <v>164387</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2">
         <v>44608</v>
@@ -1780,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2">
         <v>44673</v>
@@ -1792,7 +1311,7 @@
         <v>72175213</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2">
         <v>44608</v>
@@ -1812,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2">
         <v>44673</v>
@@ -1824,7 +1343,7 @@
         <v>31227487</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2">
         <v>44608</v>
@@ -1844,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2">
         <v>44673</v>
@@ -1856,7 +1375,7 @@
         <v>282547</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G8" s="2">
         <v>44608</v>
@@ -1876,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2">
         <v>44673</v>
@@ -1888,7 +1407,7 @@
         <v>4131324</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G9" s="2">
         <v>44608</v>
@@ -1908,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2">
         <v>44676</v>
@@ -1920,7 +1439,7 @@
         <v>10173696</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2">
         <v>44608</v>
@@ -1940,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2">
         <v>44673</v>
@@ -1952,7 +1471,7 @@
         <v>6242239</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2">
         <v>44608</v>
@@ -1972,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2">
         <v>44673</v>
@@ -1984,7 +1503,7 @@
         <v>53885750</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2">
         <v>44608</v>
@@ -2004,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2">
         <v>44673</v>
@@ -2016,7 +1535,7 @@
         <v>8168805</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2">
         <v>44608</v>
@@ -2036,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2">
         <v>44676</v>
@@ -2048,7 +1567,7 @@
         <v>40873250</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G14" s="2">
         <v>44608</v>
@@ -2068,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2">
         <v>44676</v>
@@ -2080,7 +1599,7 @@
         <v>20347392</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2">
         <v>44608</v>
@@ -2100,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2">
         <v>44676</v>
@@ -2112,7 +1631,7 @@
         <v>221399217</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2">
         <v>44608</v>
@@ -2132,7 +1651,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2">
         <v>44676</v>
@@ -2144,7 +1663,7 @@
         <v>9741119</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2">
         <v>44608</v>
@@ -2164,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2">
         <v>44673</v>
@@ -2176,7 +1695,7 @@
         <v>7470760</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G18" s="2">
         <v>44608</v>
@@ -2196,7 +1715,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2">
         <v>44676</v>
@@ -2208,7 +1727,7 @@
         <v>4590020</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2">
         <v>44608</v>
@@ -2228,7 +1747,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2">
         <v>44676</v>
@@ -2240,7 +1759,7 @@
         <v>221399217</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2">
         <v>44608</v>
@@ -2260,13 +1779,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2280,7 +1799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2307,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2318,7 +1837,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2329,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2340,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2351,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2362,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2373,7 +1892,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2384,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2395,7 +1914,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2406,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2417,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2428,7 +1947,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2439,7 +1958,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2450,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2461,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2472,7 +1991,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2483,7 +2002,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2494,7 +2013,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2505,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2538,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -2568,7 +2087,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2">
         <v>44656</v>
@@ -2585,7 +2104,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2">
         <v>44656</v>
@@ -2602,7 +2121,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2">
         <v>44656</v>
@@ -2619,7 +2138,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2">
         <v>44656</v>
@@ -2636,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2">
         <v>44656</v>
@@ -2653,7 +2172,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2">
         <v>44656</v>
@@ -2670,7 +2189,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2">
         <v>44656</v>
@@ -2687,7 +2206,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2">
         <v>44656</v>
@@ -2704,7 +2223,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2">
         <v>44656</v>
@@ -2721,7 +2240,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2">
         <v>44656</v>
@@ -2738,7 +2257,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2">
         <v>44659</v>
@@ -2755,7 +2274,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2">
         <v>44659</v>
@@ -2772,7 +2291,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2">
         <v>44656</v>
@@ -2789,7 +2308,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2">
         <v>44656</v>
@@ -2806,7 +2325,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2">
         <v>44656</v>
@@ -2823,7 +2342,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2">
         <v>44656</v>
@@ -2840,7 +2359,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2">
         <v>44656</v>
@@ -2857,7 +2376,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2">
         <v>44656</v>
@@ -2874,7 +2393,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
@@ -2891,7 +2410,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2">
         <v>44656</v>
@@ -2908,7 +2427,7 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C22" s="2">
         <v>44659</v>
@@ -2925,7 +2444,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C23" s="2">
         <v>44659</v>
@@ -2942,7 +2461,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2">
         <v>44659</v>
@@ -2959,7 +2478,7 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2970,7 +2489,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2">
         <v>44659</v>
@@ -2987,7 +2506,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2998,7 +2517,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3009,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -3054,7 +2573,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2">
         <v>44656</v>
@@ -3066,7 +2585,7 @@
         <v>693</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2">
         <v>44607</v>
@@ -3086,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2">
         <v>44656</v>
@@ -3098,7 +2617,7 @@
         <v>2689442</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2">
         <v>44607</v>
@@ -3118,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2">
         <v>44656</v>
@@ -3130,7 +2649,7 @@
         <v>24734221</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2">
         <v>44607</v>
@@ -3150,7 +2669,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2">
         <v>44656</v>
@@ -3162,7 +2681,7 @@
         <v>358996</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2">
         <v>44607</v>
@@ -3182,7 +2701,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2">
         <v>44656</v>
@@ -3194,7 +2713,7 @@
         <v>15368487</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2">
         <v>44607</v>
@@ -3214,7 +2733,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2">
         <v>44656</v>
@@ -3226,13 +2745,13 @@
         <v>50883490</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2">
         <v>44551</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="I7">
         <v>48441225</v>
@@ -3246,7 +2765,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2">
         <v>44656</v>
@@ -3258,7 +2777,7 @@
         <v>2222055</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G8" s="2">
         <v>44607</v>
@@ -3278,7 +2797,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2">
         <v>44656</v>
@@ -3290,7 +2809,7 @@
         <v>16413407</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G9" s="2">
         <v>44607</v>
@@ -3310,7 +2829,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2">
         <v>44656</v>
@@ -3322,7 +2841,7 @@
         <v>2022979</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2">
         <v>44607</v>
@@ -3342,7 +2861,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2">
         <v>44656</v>
@@ -3354,7 +2873,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2">
         <v>44531</v>
@@ -3374,7 +2893,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2">
         <v>44659</v>
@@ -3386,7 +2905,7 @@
         <v>2052811</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2">
         <v>44531</v>
@@ -3406,7 +2925,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2">
         <v>44659</v>
@@ -3418,7 +2937,7 @@
         <v>1357426</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2">
         <v>44531</v>
@@ -3438,7 +2957,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2">
         <v>44656</v>
@@ -3450,7 +2969,7 @@
         <v>1157111</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G14" s="2">
         <v>44531</v>
@@ -3470,7 +2989,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2">
         <v>44656</v>
@@ -3482,7 +3001,7 @@
         <v>41019</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2">
         <v>44531</v>
@@ -3502,7 +3021,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2">
         <v>44656</v>
@@ -3514,7 +3033,7 @@
         <v>1468450</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2">
         <v>44531</v>
@@ -3534,7 +3053,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2">
         <v>44656</v>
@@ -3546,7 +3065,7 @@
         <v>34365</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2">
         <v>44531</v>
@@ -3566,7 +3085,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2">
         <v>44656</v>
@@ -3578,7 +3097,7 @@
         <v>616029</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G18" s="2">
         <v>44531</v>
@@ -3598,7 +3117,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2">
         <v>44656</v>
@@ -3610,7 +3129,7 @@
         <v>3140000</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2">
         <v>44607</v>
@@ -3630,7 +3149,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
@@ -3642,7 +3161,7 @@
         <v>268</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2">
         <v>44291</v>
@@ -3662,7 +3181,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2">
         <v>44656</v>
@@ -3674,7 +3193,7 @@
         <v>61510927</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2">
         <v>44607</v>
@@ -3694,7 +3213,7 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C22" s="2">
         <v>44659</v>
@@ -3706,7 +3225,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G22" s="2">
         <v>44530</v>
@@ -3726,7 +3245,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C23" s="2">
         <v>44659</v>
@@ -3738,7 +3257,7 @@
         <v>1168</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G23" s="2">
         <v>44530</v>
@@ -3758,7 +3277,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2">
         <v>44659</v>
@@ -3770,7 +3289,7 @@
         <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2">
         <v>44530</v>
@@ -3790,13 +3309,13 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3810,7 +3329,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2">
         <v>44659</v>
@@ -3822,7 +3341,7 @@
         <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2">
         <v>44530</v>
@@ -3842,13 +3361,13 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3862,13 +3381,13 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3882,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -4371,7 +3890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -4398,7 +3917,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4409,7 +3928,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4420,7 +3939,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4431,7 +3950,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4442,7 +3961,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4453,7 +3972,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4464,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4475,7 +3994,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4486,7 +4005,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4497,7 +4016,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4508,7 +4027,7 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4519,7 +4038,7 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4530,7 +4049,7 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4541,7 +4060,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4552,7 +4071,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4563,7 +4082,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4574,7 +4093,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4585,7 +4104,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4596,7 +4115,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4607,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4618,7 +4137,7 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4629,7 +4148,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4640,7 +4159,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4651,7 +4170,7 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4662,7 +4181,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4673,7 +4192,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4684,7 +4203,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4695,647 +4214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42736</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43100</v>
-      </c>
-      <c r="G2" s="2">
-        <v>42736</v>
-      </c>
-      <c r="H2" s="2">
-        <v>42370</v>
-      </c>
-      <c r="I2" s="2">
-        <v>42370</v>
-      </c>
-      <c r="J2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="2">
-        <v>43049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43101</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43190</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43101</v>
-      </c>
-      <c r="H3" s="2">
-        <v>42370</v>
-      </c>
-      <c r="I3" s="2">
-        <v>42370</v>
-      </c>
-      <c r="J3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43101</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43281</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43101</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I4" s="2">
-        <v>42736</v>
-      </c>
-      <c r="J4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="2">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43101</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43373</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43101</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42736</v>
-      </c>
-      <c r="J5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" s="2">
-        <v>43378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="2">
-        <v>43101</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43465</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43101</v>
-      </c>
-      <c r="H6" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I6" s="2">
-        <v>42736</v>
-      </c>
-      <c r="J6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43191</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43555</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43191</v>
-      </c>
-      <c r="H7" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I7" s="2">
-        <v>42736</v>
-      </c>
-      <c r="J7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" s="2">
-        <v>43430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43646</v>
-      </c>
-      <c r="G8" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I8" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="2">
-        <v>43651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43738</v>
-      </c>
-      <c r="G9" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I9" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="2">
-        <v>43742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F10" s="2">
-        <v>43830</v>
-      </c>
-      <c r="G10" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I10" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L10" s="2">
-        <v>43833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="2">
-        <v>43556</v>
-      </c>
-      <c r="F11" s="2">
-        <v>43921</v>
-      </c>
-      <c r="G11" s="2">
-        <v>43556</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I11" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="2">
-        <v>43801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44012</v>
-      </c>
-      <c r="G12" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I12" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K12" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" s="2">
-        <v>44015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G13" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I13" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K13" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="2">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44196</v>
-      </c>
-      <c r="G14" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I14" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" s="2">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="2">
-        <v>43922</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G15" s="2">
-        <v>43922</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I15" s="2">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44367</v>
-      </c>
-      <c r="G16" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I16" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F17" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G17" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I17" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44561</v>
-      </c>
-      <c r="G18" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -5365,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
         <v>44673</v>
@@ -5382,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
         <v>44673</v>
@@ -5399,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
         <v>44673</v>
@@ -5416,7 +4295,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2">
         <v>44673</v>
@@ -5433,7 +4312,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2">
         <v>44673</v>
@@ -5450,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2">
         <v>44673</v>
@@ -5467,7 +4346,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2">
         <v>44673</v>
@@ -5484,7 +4363,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2">
         <v>44673</v>
@@ -5501,7 +4380,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2">
         <v>44676</v>
@@ -5518,7 +4397,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2">
         <v>44673</v>
@@ -5535,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <v>44673</v>
@@ -5552,7 +4431,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2">
         <v>44673</v>
@@ -5569,7 +4448,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>44676</v>
@@ -5586,7 +4465,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2">
         <v>44676</v>
@@ -5603,7 +4482,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2">
         <v>44676</v>
@@ -5620,7 +4499,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2">
         <v>44676</v>
@@ -5637,7 +4516,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2">
         <v>44673</v>
@@ -5654,7 +4533,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2">
         <v>44676</v>
@@ -5671,7 +4550,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2">
         <v>44676</v>
@@ -5688,9 +4567,907 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>12264</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>11772</v>
+      </c>
+      <c r="J2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>22425</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>21573</v>
+      </c>
+      <c r="J3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>55835</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>53419</v>
+      </c>
+      <c r="J4">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>15889</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>15488</v>
+      </c>
+      <c r="J5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>6810007</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>6479615</v>
+      </c>
+      <c r="J6">
+        <v>330392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2965135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>2823957</v>
+      </c>
+      <c r="J7">
+        <v>141178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>29991</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>28491</v>
+      </c>
+      <c r="J8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>324822</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>324612</v>
+      </c>
+      <c r="J9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>967017</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>978621</v>
+      </c>
+      <c r="J10">
+        <v>-11604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>422369</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>414995</v>
+      </c>
+      <c r="J11">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>4710199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>4462147</v>
+      </c>
+      <c r="J12">
+        <v>248052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>539919</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>517031</v>
+      </c>
+      <c r="J13">
+        <v>22888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>7540167</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>6894238</v>
+      </c>
+      <c r="J14">
+        <v>645929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1934034</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>1957242</v>
+      </c>
+      <c r="J15">
+        <v>-23208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>20053421</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>20228690</v>
+      </c>
+      <c r="J16">
+        <v>-175269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1016474</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>963637</v>
+      </c>
+      <c r="J17">
+        <v>52837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>709015</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>657232</v>
+      </c>
+      <c r="J18">
+        <v>51783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>386908</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19">
+        <v>204565</v>
+      </c>
+      <c r="J19">
+        <v>182343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44676</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>20053421</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44608</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20">
+        <v>20228690</v>
+      </c>
+      <c r="J20">
+        <v>-175269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
@@ -6374,904 +6151,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>12264</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>11772</v>
-      </c>
-      <c r="J2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>22425</v>
-      </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3">
-        <v>21573</v>
-      </c>
-      <c r="J3">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>55835</v>
-      </c>
-      <c r="F4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4">
-        <v>53419</v>
-      </c>
-      <c r="J4">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>15889</v>
-      </c>
-      <c r="F5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5">
-        <v>15488</v>
-      </c>
-      <c r="J5">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>6810007</v>
-      </c>
-      <c r="F6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6">
-        <v>6479615</v>
-      </c>
-      <c r="J6">
-        <v>330392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>2965135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>2823957</v>
-      </c>
-      <c r="J7">
-        <v>141178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>29991</v>
-      </c>
-      <c r="F8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>28491</v>
-      </c>
-      <c r="J8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>324822</v>
-      </c>
-      <c r="F9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9">
-        <v>324612</v>
-      </c>
-      <c r="J9">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>967017</v>
-      </c>
-      <c r="F10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>978621</v>
-      </c>
-      <c r="J10">
-        <v>-11604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>422369</v>
-      </c>
-      <c r="F11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11">
-        <v>414995</v>
-      </c>
-      <c r="J11">
-        <v>7374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>4710199</v>
-      </c>
-      <c r="F12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12">
-        <v>4462147</v>
-      </c>
-      <c r="J12">
-        <v>248052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>539919</v>
-      </c>
-      <c r="F13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13">
-        <v>517031</v>
-      </c>
-      <c r="J13">
-        <v>22888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>7540167</v>
-      </c>
-      <c r="F14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14">
-        <v>6894238</v>
-      </c>
-      <c r="J14">
-        <v>645929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1934034</v>
-      </c>
-      <c r="F15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15">
-        <v>1957242</v>
-      </c>
-      <c r="J15">
-        <v>-23208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>20053421</v>
-      </c>
-      <c r="F16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16">
-        <v>20228690</v>
-      </c>
-      <c r="J16">
-        <v>-175269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1016474</v>
-      </c>
-      <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17">
-        <v>963637</v>
-      </c>
-      <c r="J17">
-        <v>52837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44673</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>709015</v>
-      </c>
-      <c r="F18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18">
-        <v>657232</v>
-      </c>
-      <c r="J18">
-        <v>51783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>386908</v>
-      </c>
-      <c r="F19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19">
-        <v>204565</v>
-      </c>
-      <c r="J19">
-        <v>182343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44676</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>20053421</v>
-      </c>
-      <c r="F20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="2">
-        <v>44608</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20">
-        <v>20228690</v>
-      </c>
-      <c r="J20">
-        <v>-175269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7303,7 +6182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -7333,7 +6212,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
         <v>44657</v>
@@ -7350,7 +6229,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
         <v>44657</v>
@@ -7367,7 +6246,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
         <v>44657</v>
@@ -7384,7 +6263,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2">
         <v>44657</v>
@@ -7401,7 +6280,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2">
         <v>44657</v>
@@ -7418,7 +6297,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2">
         <v>44657</v>
@@ -7435,7 +6314,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2">
         <v>44657</v>
@@ -7452,7 +6331,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2">
         <v>44657</v>
@@ -7469,7 +6348,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2">
         <v>44657</v>
@@ -7486,7 +6365,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2">
         <v>44657</v>
@@ -7503,7 +6382,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <v>44657</v>
@@ -7520,7 +6399,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2">
         <v>44657</v>
@@ -7537,7 +6416,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>44657</v>
@@ -7554,7 +6433,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -7565,7 +6444,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2">
         <v>44657</v>
@@ -7582,7 +6461,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2">
         <v>44657</v>
@@ -7599,7 +6478,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2">
         <v>44657</v>
@@ -7616,7 +6495,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2">
         <v>44657</v>
@@ -7633,7 +6512,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
@@ -7650,7 +6529,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2">
         <v>44657</v>
@@ -7667,7 +6546,7 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2">
         <v>44657</v>
@@ -7684,7 +6563,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2">
         <v>44657</v>
@@ -7701,7 +6580,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C24" s="2">
         <v>44657</v>
@@ -7718,7 +6597,7 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -7729,7 +6608,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2">
         <v>44657</v>
@@ -7746,7 +6625,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -7757,7 +6636,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -7768,7 +6647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -7813,7 +6692,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
         <v>44657</v>
@@ -7825,7 +6704,7 @@
         <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2">
         <v>44608</v>
@@ -7845,7 +6724,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
         <v>44657</v>
@@ -7857,7 +6736,7 @@
         <v>692088</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2">
         <v>44608</v>
@@ -7877,7 +6756,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
         <v>44657</v>
@@ -7889,7 +6768,7 @@
         <v>4889569</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2">
         <v>44608</v>
@@ -7909,7 +6788,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2">
         <v>44657</v>
@@ -7921,7 +6800,7 @@
         <v>49235</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G5" s="2">
         <v>44608</v>
@@ -7941,7 +6820,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2">
         <v>44657</v>
@@ -7953,7 +6832,7 @@
         <v>3426785</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2">
         <v>44608</v>
@@ -7973,7 +6852,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2">
         <v>44657</v>
@@ -7985,13 +6864,13 @@
         <v>3868282</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G7" s="2">
         <v>44548</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="I7">
         <v>3676090</v>
@@ -8005,7 +6884,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2">
         <v>44657</v>
@@ -8017,7 +6896,7 @@
         <v>487863</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2">
         <v>44608</v>
@@ -8037,7 +6916,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2">
         <v>44657</v>
@@ -8049,7 +6928,7 @@
         <v>2590065</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G9" s="2">
         <v>44608</v>
@@ -8069,7 +6948,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2">
         <v>44657</v>
@@ -8081,7 +6960,7 @@
         <v>222993</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G10" s="2">
         <v>44608</v>
@@ -8101,7 +6980,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2">
         <v>44657</v>
@@ -8113,7 +6992,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G11" s="2">
         <v>44535</v>
@@ -8133,7 +7012,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <v>44657</v>
@@ -8145,7 +7024,7 @@
         <v>95778</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G12" s="2">
         <v>44535</v>
@@ -8165,7 +7044,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2">
         <v>44657</v>
@@ -8177,7 +7056,7 @@
         <v>69807</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G13" s="2">
         <v>44535</v>
@@ -8197,7 +7076,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>44657</v>
@@ -8209,7 +7088,7 @@
         <v>63226</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G14" s="2">
         <v>44535</v>
@@ -8229,13 +7108,13 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -8249,7 +7128,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2">
         <v>44657</v>
@@ -8261,7 +7140,7 @@
         <v>109825</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G16" s="2">
         <v>44535</v>
@@ -8281,7 +7160,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2">
         <v>44657</v>
@@ -8293,7 +7172,7 @@
         <v>3366</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G17" s="2">
         <v>44535</v>
@@ -8313,7 +7192,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2">
         <v>44657</v>
@@ -8325,7 +7204,7 @@
         <v>62547</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G18" s="2">
         <v>44535</v>
@@ -8345,7 +7224,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2">
         <v>44657</v>
@@ -8357,7 +7236,7 @@
         <v>724054</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G19" s="2">
         <v>44608</v>
@@ -8377,7 +7256,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
@@ -8389,7 +7268,7 @@
         <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G20" s="2">
         <v>44291</v>
@@ -8409,7 +7288,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2">
         <v>44657</v>
@@ -8421,7 +7300,7 @@
         <v>4227126</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G21" s="2">
         <v>44608</v>
@@ -8441,7 +7320,7 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2">
         <v>44657</v>
@@ -8453,7 +7332,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2">
         <v>44530</v>
@@ -8473,7 +7352,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2">
         <v>44657</v>
@@ -8485,7 +7364,7 @@
         <v>554</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G23" s="2">
         <v>44530</v>
@@ -8505,7 +7384,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C24" s="2">
         <v>44657</v>
@@ -8517,7 +7396,7 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G24" s="2">
         <v>44530</v>
@@ -8537,13 +7416,13 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -8557,7 +7436,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2">
         <v>44657</v>
@@ -8569,7 +7448,7 @@
         <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G26" s="2">
         <v>44530</v>
@@ -8589,13 +7468,13 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -8609,13 +7488,13 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -8629,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -9118,7 +7997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -9145,7 +8024,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9156,7 +8035,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -9167,7 +8046,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9178,7 +8057,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9189,7 +8068,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9200,7 +8079,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9211,7 +8090,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9222,7 +8101,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9233,7 +8112,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9244,7 +8123,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9255,7 +8134,7 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9266,7 +8145,7 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9277,7 +8156,7 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9288,7 +8167,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9299,7 +8178,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9310,7 +8189,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9321,7 +8200,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -9332,7 +8211,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -9343,7 +8222,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -9354,7 +8233,7 @@
         <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -9365,7 +8244,7 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -9376,7 +8255,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -9387,7 +8266,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -9398,7 +8277,7 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -9409,7 +8288,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -9420,7 +8299,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -9431,352 +8310,10 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43830</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="2">
-        <v>43801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43921</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44012</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L4" s="2">
-        <v>44015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="2">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44196</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I6" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" s="2">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44367</v>
-      </c>
-      <c r="G8" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I8" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G9" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I9" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44561</v>
-      </c>
-      <c r="G10" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I10" s="2">
-        <v>43831</v>
       </c>
     </row>
   </sheetData>
@@ -12219,876 +10756,361 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44673</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42095</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42460</v>
-      </c>
-      <c r="G2" s="2">
-        <v>42095</v>
-      </c>
-      <c r="H2" s="2">
-        <v>41640</v>
-      </c>
-      <c r="I2" s="2">
-        <v>41640</v>
-      </c>
-      <c r="J2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="2">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>83883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44673</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42186</v>
-      </c>
-      <c r="F3" s="2">
-        <v>42551</v>
-      </c>
-      <c r="G3" s="2">
-        <v>42186</v>
-      </c>
-      <c r="H3" s="2">
-        <v>42005</v>
-      </c>
-      <c r="I3" s="2">
-        <v>42005</v>
-      </c>
-      <c r="J3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="2">
-        <v>42552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>143513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44673</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="2">
-        <v>42278</v>
-      </c>
-      <c r="F4" s="2">
-        <v>42643</v>
-      </c>
-      <c r="G4" s="2">
-        <v>42278</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42005</v>
-      </c>
-      <c r="I4" s="2">
-        <v>42005</v>
-      </c>
-      <c r="J4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" s="2">
-        <v>42650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>479824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44673</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="2">
-        <v>42370</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42735</v>
-      </c>
-      <c r="G5" s="2">
-        <v>42370</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42005</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42005</v>
-      </c>
-      <c r="J5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="2">
-        <v>42734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>164387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
+        <v>117</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44673</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42461</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G6" s="2">
-        <v>42461</v>
-      </c>
-      <c r="H6" s="2">
-        <v>42005</v>
-      </c>
-      <c r="I6" s="2">
-        <v>42005</v>
-      </c>
-      <c r="J6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="2">
-        <v>42832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>72175213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44673</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="2">
-        <v>42552</v>
-      </c>
-      <c r="F7" s="2">
-        <v>42916</v>
-      </c>
-      <c r="G7" s="2">
-        <v>42552</v>
-      </c>
-      <c r="H7" s="2">
-        <v>42005</v>
-      </c>
-      <c r="I7" s="2">
-        <v>42005</v>
-      </c>
-      <c r="J7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="2">
-        <v>42923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>31227487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44673</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="2">
-        <v>42644</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43008</v>
-      </c>
-      <c r="G8" s="2">
-        <v>42644</v>
-      </c>
-      <c r="H8" s="2">
-        <v>42370</v>
-      </c>
-      <c r="I8" s="2">
-        <v>42370</v>
-      </c>
-      <c r="J8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="2">
-        <v>43014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>282547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44673</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="2">
-        <v>42736</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43100</v>
-      </c>
-      <c r="G9" s="2">
-        <v>42736</v>
-      </c>
-      <c r="H9" s="2">
-        <v>42370</v>
-      </c>
-      <c r="I9" s="2">
-        <v>42370</v>
-      </c>
-      <c r="J9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="2">
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>4131324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
+        <v>117</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44676</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="2">
-        <v>42826</v>
-      </c>
-      <c r="F10" s="2">
-        <v>43190</v>
-      </c>
-      <c r="G10" s="2">
-        <v>42826</v>
-      </c>
-      <c r="H10" s="2">
-        <v>42370</v>
-      </c>
-      <c r="I10" s="2">
-        <v>42370</v>
-      </c>
-      <c r="J10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="2">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>10173696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44673</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="2">
-        <v>42917</v>
-      </c>
-      <c r="F11" s="2">
-        <v>43281</v>
-      </c>
-      <c r="G11" s="2">
-        <v>42917</v>
-      </c>
-      <c r="H11" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I11" s="2">
-        <v>42736</v>
-      </c>
-      <c r="J11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="2">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>6242239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
+        <v>117</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44673</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="2">
-        <v>43009</v>
-      </c>
-      <c r="F12" s="2">
-        <v>43373</v>
-      </c>
-      <c r="G12" s="2">
-        <v>43009</v>
-      </c>
-      <c r="H12" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I12" s="2">
-        <v>42736</v>
-      </c>
-      <c r="J12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="2">
-        <v>43378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>53885750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44673</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43101</v>
-      </c>
-      <c r="F13" s="2">
-        <v>43465</v>
-      </c>
-      <c r="G13" s="2">
-        <v>43101</v>
-      </c>
-      <c r="H13" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I13" s="2">
-        <v>42736</v>
-      </c>
-      <c r="J13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>8168805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
+        <v>117</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44676</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="2">
-        <v>43191</v>
-      </c>
-      <c r="F14" s="2">
-        <v>43555</v>
-      </c>
-      <c r="G14" s="2">
-        <v>43191</v>
-      </c>
-      <c r="H14" s="2">
-        <v>42736</v>
-      </c>
-      <c r="I14" s="2">
-        <v>42736</v>
-      </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="2">
-        <v>43560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>40873250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
+        <v>117</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44676</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F15" s="2">
-        <v>43646</v>
-      </c>
-      <c r="G15" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I15" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="2">
-        <v>43651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>20347392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
+        <v>117</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44676</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F16" s="2">
-        <v>43738</v>
-      </c>
-      <c r="G16" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I16" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K16" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="2">
-        <v>43742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>221399217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>142</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44676</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="2">
-        <v>43466</v>
-      </c>
-      <c r="F17" s="2">
-        <v>43830</v>
-      </c>
-      <c r="G17" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I17" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K17" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="2">
-        <v>43833</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>9741119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
+        <v>117</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44673</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="2">
-        <v>43556</v>
-      </c>
-      <c r="F18" s="2">
-        <v>43921</v>
-      </c>
-      <c r="G18" s="2">
-        <v>43556</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43101</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43101</v>
-      </c>
-      <c r="K18" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="2">
-        <v>43801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>7470760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44676</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F19" s="2">
-        <v>44012</v>
-      </c>
-      <c r="G19" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H19" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I19" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="2">
-        <v>44015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>4590020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
+        <v>117</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44676</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G20" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I20" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K20" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="2">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>221399217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F21" s="2">
-        <v>44196</v>
-      </c>
-      <c r="G21" s="2">
-        <v>43831</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I21" s="2">
-        <v>43466</v>
-      </c>
-      <c r="K21" t="s">
-        <v>153</v>
-      </c>
-      <c r="L21" s="2">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="2">
-        <v>43922</v>
-      </c>
-      <c r="F22" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G22" s="2">
-        <v>43922</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I22" s="2">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F23" s="2">
-        <v>44367</v>
-      </c>
-      <c r="G23" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I23" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F24" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G24" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I24" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F25" s="2">
-        <v>44561</v>
-      </c>
-      <c r="G25" s="2">
-        <v>44197</v>
-      </c>
-      <c r="H25" s="2">
-        <v>43831</v>
-      </c>
-      <c r="I25" s="2">
-        <v>43831</v>
+        <v>117</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_mssp3org.xlsx
+++ b/allTest_mssp3org.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="117">
   <si>
     <t>tableName</t>
   </si>
@@ -147,10 +147,7 @@
     <t>diff</t>
   </si>
   <si>
-    <t>PROD_A2841_FE</t>
-  </si>
-  <si>
-    <t>m-2022-01</t>
+    <t>INT_A2841_FE</t>
   </si>
   <si>
     <t>rowsEffected</t>
@@ -273,15 +270,6 @@
     <t>q-2019-2</t>
   </si>
   <si>
-    <t>2022-01</t>
-  </si>
-  <si>
-    <t>q-2021-4</t>
-  </si>
-  <si>
-    <t>q-2021-2</t>
-  </si>
-  <si>
     <t>MEASURE_ID</t>
   </si>
   <si>
@@ -393,16 +381,13 @@
     <t>PROD_A3229</t>
   </si>
   <si>
-    <t>PROD_A3229_FE</t>
-  </si>
-  <si>
-    <t>2021-12</t>
+    <t>INT_A3229_FE</t>
   </si>
   <si>
     <t>PROD_A4768</t>
   </si>
   <si>
-    <t>PROD_A4768_FE</t>
+    <t>INT_A4768_FE</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44673</v>
@@ -1183,19 +1168,19 @@
         <v>83883</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>81892</v>
+        <v>83883</v>
       </c>
       <c r="J2">
-        <v>1991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1203,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44673</v>
@@ -1215,19 +1200,19 @@
         <v>143513</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>140328</v>
+        <v>143513</v>
       </c>
       <c r="J3">
-        <v>3185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1235,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44673</v>
@@ -1247,19 +1232,19 @@
         <v>479824</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>466186</v>
+        <v>479824</v>
       </c>
       <c r="J4">
-        <v>13638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1267,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44673</v>
@@ -1279,19 +1264,19 @@
         <v>164387</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>161159</v>
+        <v>164387</v>
       </c>
       <c r="J5">
-        <v>3228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1299,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44673</v>
@@ -1311,19 +1296,19 @@
         <v>72175213</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>69503772</v>
+        <v>72175213</v>
       </c>
       <c r="J6">
-        <v>2671441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1331,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44673</v>
@@ -1343,19 +1328,19 @@
         <v>31227487</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I7">
-        <v>30057659</v>
+        <v>31227487</v>
       </c>
       <c r="J7">
-        <v>1169828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1363,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44673</v>
@@ -1375,19 +1360,19 @@
         <v>282547</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>271647</v>
+        <v>282547</v>
       </c>
       <c r="J8">
-        <v>10900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1395,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2">
         <v>44673</v>
@@ -1407,19 +1392,19 @@
         <v>4131324</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>4137852</v>
+        <v>4131324</v>
       </c>
       <c r="J9">
-        <v>-6528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1427,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44676</v>
@@ -1439,19 +1424,19 @@
         <v>10173696</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G10" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I10">
-        <v>10361112</v>
+        <v>10173696</v>
       </c>
       <c r="J10">
-        <v>-187416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1459,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>44673</v>
@@ -1471,19 +1456,19 @@
         <v>6242239</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G11" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>5895861</v>
+        <v>6242239</v>
       </c>
       <c r="J11">
-        <v>346378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1491,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2">
         <v>44673</v>
@@ -1503,19 +1488,19 @@
         <v>53885750</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G12" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I12">
-        <v>49681055</v>
+        <v>53885750</v>
       </c>
       <c r="J12">
-        <v>4204695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1523,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>44673</v>
@@ -1535,19 +1520,19 @@
         <v>8168805</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I13">
-        <v>7973895</v>
+        <v>8168805</v>
       </c>
       <c r="J13">
-        <v>194910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1555,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>44676</v>
@@ -1567,19 +1552,19 @@
         <v>40873250</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I14">
-        <v>37678115</v>
+        <v>40873250</v>
       </c>
       <c r="J14">
-        <v>3195135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1587,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2">
         <v>44676</v>
@@ -1599,19 +1584,19 @@
         <v>20347392</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I15">
-        <v>20722224</v>
+        <v>20347392</v>
       </c>
       <c r="J15">
-        <v>-374832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1619,7 +1604,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>44676</v>
@@ -1631,19 +1616,19 @@
         <v>221399217</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>224605996</v>
+        <v>221399217</v>
       </c>
       <c r="J16">
-        <v>-3206779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1651,7 +1636,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2">
         <v>44676</v>
@@ -1663,19 +1648,19 @@
         <v>9741119</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G17" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I17">
-        <v>9370137</v>
+        <v>9741119</v>
       </c>
       <c r="J17">
-        <v>370982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1683,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2">
         <v>44673</v>
@@ -1695,19 +1680,19 @@
         <v>7470760</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I18">
-        <v>7027562</v>
+        <v>7470760</v>
       </c>
       <c r="J18">
-        <v>443198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1715,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44676</v>
@@ -1727,19 +1712,19 @@
         <v>4590020</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I19">
-        <v>2903514</v>
+        <v>4590020</v>
       </c>
       <c r="J19">
-        <v>1686506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1747,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2">
         <v>44676</v>
@@ -1759,19 +1744,19 @@
         <v>221399217</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I20">
-        <v>224605996</v>
+        <v>221399217</v>
       </c>
       <c r="J20">
-        <v>-3206779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1779,13 +1764,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1815,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1826,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1837,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1848,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1859,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1870,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1881,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1892,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1903,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1914,7 +1899,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1925,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1936,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1947,7 +1932,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1958,7 +1943,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1969,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1980,7 +1965,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1991,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2002,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2013,7 +1998,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2034,22 +2019,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2084,16 +2069,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44656</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>693</v>
@@ -2101,16 +2086,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44656</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2689442</v>
@@ -2118,16 +2103,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44656</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>24734221</v>
@@ -2135,16 +2120,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44656</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>358996</v>
@@ -2152,16 +2137,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44656</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>15368487</v>
@@ -2169,16 +2154,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44656</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>50883490</v>
@@ -2186,16 +2171,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44656</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>2222055</v>
@@ -2203,16 +2188,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2">
         <v>44656</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>16413407</v>
@@ -2220,16 +2205,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44656</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>2022979</v>
@@ -2237,16 +2222,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>44656</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>21</v>
@@ -2254,16 +2239,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2">
         <v>44659</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>2052811</v>
@@ -2271,16 +2256,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>44659</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>1357426</v>
@@ -2288,16 +2273,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>44656</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>1157111</v>
@@ -2305,16 +2290,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2">
         <v>44656</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>41019</v>
@@ -2322,16 +2307,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>44656</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>1468450</v>
@@ -2339,16 +2324,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2">
         <v>44656</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>34365</v>
@@ -2356,16 +2341,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2">
         <v>44656</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>616029</v>
@@ -2373,16 +2358,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44656</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>3140000</v>
@@ -2390,16 +2375,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>268</v>
@@ -2407,16 +2392,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" s="2">
         <v>44656</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>61510927</v>
@@ -2424,16 +2409,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2">
         <v>44659</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>18</v>
@@ -2441,16 +2426,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2">
         <v>44659</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>1168</v>
@@ -2458,16 +2443,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2">
         <v>44659</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>70</v>
@@ -2475,10 +2460,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2486,16 +2471,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2">
         <v>44659</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>209</v>
@@ -2503,10 +2488,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2514,10 +2499,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2570,604 +2555,604 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44656</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>693</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44656</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2689442</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I3">
-        <v>2529389</v>
+        <v>2689442</v>
       </c>
       <c r="J3">
-        <v>160053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44656</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>24734221</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I4">
-        <v>23434635</v>
+        <v>24734221</v>
       </c>
       <c r="J4">
-        <v>1299586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44656</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>358996</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>338626</v>
+        <v>358996</v>
       </c>
       <c r="J5">
-        <v>20370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44656</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>15368487</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>14517236</v>
+        <v>15368487</v>
       </c>
       <c r="J6">
-        <v>851251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44656</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>50883490</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2">
-        <v>44551</v>
+        <v>44656</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>48441225</v>
+        <v>50883490</v>
       </c>
       <c r="J7">
-        <v>2442265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44656</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>2222055</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>2113347</v>
+        <v>2222055</v>
       </c>
       <c r="J8">
-        <v>108708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2">
         <v>44656</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>16413407</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I9">
-        <v>15720518</v>
+        <v>16413407</v>
       </c>
       <c r="J9">
-        <v>692889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44656</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>2022979</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G10" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>1762991</v>
+        <v>2022979</v>
       </c>
       <c r="J10">
-        <v>259988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>44656</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G11" s="2">
-        <v>44531</v>
+        <v>44656</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2">
         <v>44659</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>2052811</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G12" s="2">
-        <v>44531</v>
+        <v>44659</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I12">
-        <v>1941673</v>
+        <v>2052811</v>
       </c>
       <c r="J12">
-        <v>111138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>44659</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>1357426</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2">
-        <v>44531</v>
+        <v>44659</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>1290201</v>
+        <v>1357426</v>
       </c>
       <c r="J13">
-        <v>67225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>44656</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>1157111</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2">
-        <v>44531</v>
+        <v>44656</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I14">
-        <v>1090430</v>
+        <v>1157111</v>
       </c>
       <c r="J14">
-        <v>66681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2">
         <v>44656</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>41019</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2">
-        <v>44531</v>
+        <v>44656</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I15">
-        <v>37975</v>
+        <v>41019</v>
       </c>
       <c r="J15">
-        <v>3044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>44656</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>1468450</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2">
-        <v>44531</v>
+        <v>44656</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>1382709</v>
+        <v>1468450</v>
       </c>
       <c r="J16">
-        <v>85741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2">
         <v>44656</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>34365</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G17" s="2">
-        <v>44531</v>
+        <v>44656</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I17">
-        <v>27201</v>
+        <v>34365</v>
       </c>
       <c r="J17">
-        <v>7164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2">
         <v>44656</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>616029</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2">
-        <v>44531</v>
+        <v>44656</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I18">
-        <v>529388</v>
+        <v>616029</v>
       </c>
       <c r="J18">
-        <v>86641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44656</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>3140000</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I19">
-        <v>2948033</v>
+        <v>3140000</v>
       </c>
       <c r="J19">
-        <v>191967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>268</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="2">
         <v>44291</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <v>268</v>
@@ -3178,144 +3163,144 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" s="2">
         <v>44656</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>61510927</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G21" s="2">
-        <v>44607</v>
+        <v>44656</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I21">
-        <v>59068662</v>
+        <v>61510927</v>
       </c>
       <c r="J21">
-        <v>2442265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2">
         <v>44659</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G22" s="2">
-        <v>44530</v>
+        <v>44659</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2">
         <v>44659</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>1168</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2">
-        <v>44530</v>
+        <v>44659</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I23">
-        <v>1044</v>
+        <v>1168</v>
       </c>
       <c r="J23">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2">
         <v>44659</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G24" s="2">
-        <v>44530</v>
+        <v>44659</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I24">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3326,48 +3311,48 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2">
         <v>44659</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2">
-        <v>44530</v>
+        <v>44659</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I26">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3378,16 +3363,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3411,13 +3396,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -3425,464 +3410,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1906684</v>
       </c>
       <c r="C2">
-        <v>603692</v>
+        <v>1906684</v>
       </c>
       <c r="D2">
-        <v>1302992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>143375</v>
       </c>
       <c r="C3">
-        <v>139749</v>
+        <v>143375</v>
       </c>
       <c r="D3">
-        <v>3626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>196174</v>
       </c>
       <c r="C4">
-        <v>69449</v>
+        <v>196174</v>
       </c>
       <c r="D4">
-        <v>126725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>569467</v>
       </c>
       <c r="C5">
-        <v>277574</v>
+        <v>569467</v>
       </c>
       <c r="D5">
-        <v>291893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1959224</v>
       </c>
       <c r="C6">
-        <v>1899395</v>
+        <v>1959224</v>
       </c>
       <c r="D6">
-        <v>59829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>1793057</v>
       </c>
       <c r="C7">
-        <v>1733635</v>
+        <v>1793057</v>
       </c>
       <c r="D7">
-        <v>59422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>839012</v>
       </c>
       <c r="C8">
-        <v>812742</v>
+        <v>839012</v>
       </c>
       <c r="D8">
-        <v>26270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>1066007</v>
       </c>
       <c r="C9">
-        <v>1029044</v>
+        <v>1066007</v>
       </c>
       <c r="D9">
-        <v>36963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>1341620</v>
       </c>
       <c r="C10">
-        <v>1300809</v>
+        <v>1341620</v>
       </c>
       <c r="D10">
-        <v>40811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>223961</v>
       </c>
       <c r="C11">
-        <v>216857</v>
+        <v>223961</v>
       </c>
       <c r="D11">
-        <v>7104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>3461498</v>
       </c>
       <c r="C12">
-        <v>3360821</v>
+        <v>3461498</v>
       </c>
       <c r="D12">
-        <v>100677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>2378175</v>
       </c>
       <c r="C13">
-        <v>2311501</v>
+        <v>2378175</v>
       </c>
       <c r="D13">
-        <v>66674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>1538904</v>
       </c>
       <c r="C14">
-        <v>1495355</v>
+        <v>1538904</v>
       </c>
       <c r="D14">
-        <v>43549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>140748</v>
       </c>
       <c r="C15">
-        <v>136567</v>
+        <v>140748</v>
       </c>
       <c r="D15">
-        <v>4181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>1480037</v>
       </c>
       <c r="C16">
-        <v>1437598</v>
+        <v>1480037</v>
       </c>
       <c r="D16">
-        <v>42439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>1774668</v>
       </c>
       <c r="C17">
-        <v>1719612</v>
+        <v>1774668</v>
       </c>
       <c r="D17">
-        <v>55056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>49136</v>
       </c>
       <c r="C18">
-        <v>47471</v>
+        <v>49136</v>
       </c>
       <c r="D18">
-        <v>1665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>363266</v>
       </c>
       <c r="C19">
-        <v>350575</v>
+        <v>363266</v>
       </c>
       <c r="D19">
-        <v>12691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>1072482</v>
       </c>
       <c r="C20">
-        <v>1038701</v>
+        <v>1072482</v>
       </c>
       <c r="D20">
-        <v>33781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>864394</v>
       </c>
       <c r="C21">
-        <v>834757</v>
+        <v>864394</v>
       </c>
       <c r="D21">
-        <v>29637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>122396</v>
       </c>
       <c r="C22">
-        <v>118252</v>
+        <v>122396</v>
       </c>
       <c r="D22">
-        <v>4144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>4448547</v>
       </c>
       <c r="C23">
-        <v>4317012</v>
+        <v>4448547</v>
       </c>
       <c r="D23">
-        <v>131535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>4335512</v>
       </c>
       <c r="C24">
-        <v>4210859</v>
+        <v>4335512</v>
       </c>
       <c r="D24">
-        <v>124653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>1885150</v>
       </c>
       <c r="C25">
-        <v>1823656</v>
+        <v>1885150</v>
       </c>
       <c r="D25">
-        <v>61494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>116180</v>
       </c>
       <c r="C26">
-        <v>111777</v>
+        <v>116180</v>
       </c>
       <c r="D26">
-        <v>4403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>2009840</v>
       </c>
       <c r="C27">
-        <v>1949160</v>
+        <v>2009840</v>
       </c>
       <c r="D27">
-        <v>60680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>1294334</v>
       </c>
       <c r="C28">
-        <v>1253079</v>
+        <v>1294334</v>
       </c>
       <c r="D28">
-        <v>41255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>138491</v>
       </c>
       <c r="C29">
-        <v>134125</v>
+        <v>138491</v>
       </c>
       <c r="D29">
-        <v>4366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>91020</v>
       </c>
       <c r="C30">
-        <v>87283</v>
+        <v>91020</v>
       </c>
       <c r="D30">
-        <v>3737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>396307</v>
       </c>
       <c r="C31">
-        <v>383505</v>
+        <v>396307</v>
       </c>
       <c r="D31">
-        <v>12802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>3634399</v>
       </c>
       <c r="C32">
-        <v>3522400</v>
+        <v>3634399</v>
       </c>
       <c r="D32">
-        <v>111999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <v>122581</v>
       </c>
       <c r="C33">
-        <v>118807</v>
+        <v>122581</v>
       </c>
       <c r="D33">
-        <v>3774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B34">
         <v>783512</v>
       </c>
       <c r="C34">
-        <v>755836</v>
+        <v>783512</v>
       </c>
       <c r="D34">
-        <v>27676</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3906,18 +3891,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3925,10 +3910,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3936,10 +3921,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3947,10 +3932,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3958,10 +3943,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3969,10 +3954,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3980,10 +3965,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3991,10 +3976,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4002,10 +3987,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4013,10 +3998,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4024,10 +4009,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4035,10 +4020,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4046,10 +4031,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4057,10 +4042,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4068,10 +4053,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4079,10 +4064,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4090,10 +4075,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4101,10 +4086,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4112,10 +4097,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4123,10 +4108,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4134,10 +4119,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4145,10 +4130,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4156,10 +4141,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4167,10 +4152,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4178,10 +4163,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4189,10 +4174,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4200,10 +4185,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4244,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
         <v>44673</v>
@@ -4261,7 +4246,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2">
         <v>44673</v>
@@ -4278,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2">
         <v>44673</v>
@@ -4295,7 +4280,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2">
         <v>44673</v>
@@ -4312,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
         <v>44673</v>
@@ -4329,7 +4314,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2">
         <v>44673</v>
@@ -4346,7 +4331,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2">
         <v>44673</v>
@@ -4363,7 +4348,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>44673</v>
@@ -4380,7 +4365,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
         <v>44676</v>
@@ -4397,7 +4382,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2">
         <v>44673</v>
@@ -4414,7 +4399,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <v>44673</v>
@@ -4431,7 +4416,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2">
         <v>44673</v>
@@ -4448,7 +4433,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2">
         <v>44676</v>
@@ -4465,7 +4450,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2">
         <v>44676</v>
@@ -4482,7 +4467,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2">
         <v>44676</v>
@@ -4499,7 +4484,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2">
         <v>44676</v>
@@ -4516,7 +4501,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2">
         <v>44673</v>
@@ -4533,7 +4518,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2">
         <v>44676</v>
@@ -4550,7 +4535,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2">
         <v>44676</v>
@@ -4567,7 +4552,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4623,7 +4608,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
         <v>44673</v>
@@ -4635,19 +4620,19 @@
         <v>12264</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>11772</v>
+        <v>12264</v>
       </c>
       <c r="J2">
-        <v>492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4655,7 +4640,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2">
         <v>44673</v>
@@ -4667,19 +4652,19 @@
         <v>22425</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>21573</v>
+        <v>22425</v>
       </c>
       <c r="J3">
-        <v>852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4687,7 +4672,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2">
         <v>44673</v>
@@ -4699,19 +4684,19 @@
         <v>55835</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>53419</v>
+        <v>55835</v>
       </c>
       <c r="J4">
-        <v>2416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4719,7 +4704,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2">
         <v>44673</v>
@@ -4731,19 +4716,19 @@
         <v>15889</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>15488</v>
+        <v>15889</v>
       </c>
       <c r="J5">
-        <v>401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4751,7 +4736,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
         <v>44673</v>
@@ -4763,19 +4748,19 @@
         <v>6810007</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>6479615</v>
+        <v>6810007</v>
       </c>
       <c r="J6">
-        <v>330392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4783,7 +4768,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2">
         <v>44673</v>
@@ -4795,19 +4780,19 @@
         <v>2965135</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I7">
-        <v>2823957</v>
+        <v>2965135</v>
       </c>
       <c r="J7">
-        <v>141178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4815,7 +4800,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2">
         <v>44673</v>
@@ -4827,19 +4812,19 @@
         <v>29991</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>28491</v>
+        <v>29991</v>
       </c>
       <c r="J8">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4847,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>44673</v>
@@ -4859,19 +4844,19 @@
         <v>324822</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>324612</v>
+        <v>324822</v>
       </c>
       <c r="J9">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4879,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
         <v>44676</v>
@@ -4891,19 +4876,19 @@
         <v>967017</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I10">
-        <v>978621</v>
+        <v>967017</v>
       </c>
       <c r="J10">
-        <v>-11604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4911,7 +4896,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2">
         <v>44673</v>
@@ -4923,19 +4908,19 @@
         <v>422369</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>414995</v>
+        <v>422369</v>
       </c>
       <c r="J11">
-        <v>7374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4943,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <v>44673</v>
@@ -4955,19 +4940,19 @@
         <v>4710199</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I12">
-        <v>4462147</v>
+        <v>4710199</v>
       </c>
       <c r="J12">
-        <v>248052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4975,7 +4960,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2">
         <v>44673</v>
@@ -4987,19 +4972,19 @@
         <v>539919</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I13">
-        <v>517031</v>
+        <v>539919</v>
       </c>
       <c r="J13">
-        <v>22888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5007,7 +4992,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2">
         <v>44676</v>
@@ -5019,19 +5004,19 @@
         <v>7540167</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I14">
-        <v>6894238</v>
+        <v>7540167</v>
       </c>
       <c r="J14">
-        <v>645929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5039,7 +5024,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2">
         <v>44676</v>
@@ -5051,19 +5036,19 @@
         <v>1934034</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G15" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I15">
-        <v>1957242</v>
+        <v>1934034</v>
       </c>
       <c r="J15">
-        <v>-23208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5071,7 +5056,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2">
         <v>44676</v>
@@ -5083,19 +5068,19 @@
         <v>20053421</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>20228690</v>
+        <v>20053421</v>
       </c>
       <c r="J16">
-        <v>-175269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5103,7 +5088,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2">
         <v>44676</v>
@@ -5115,19 +5100,19 @@
         <v>1016474</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I17">
-        <v>963637</v>
+        <v>1016474</v>
       </c>
       <c r="J17">
-        <v>52837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5135,7 +5120,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2">
         <v>44673</v>
@@ -5147,19 +5132,19 @@
         <v>709015</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2">
-        <v>44608</v>
+        <v>44673</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I18">
-        <v>657232</v>
+        <v>709015</v>
       </c>
       <c r="J18">
-        <v>51783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5167,7 +5152,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2">
         <v>44676</v>
@@ -5179,19 +5164,19 @@
         <v>386908</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I19">
-        <v>204565</v>
+        <v>386908</v>
       </c>
       <c r="J19">
-        <v>182343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5199,7 +5184,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2">
         <v>44676</v>
@@ -5211,19 +5196,19 @@
         <v>20053421</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2">
-        <v>44608</v>
+        <v>44676</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I20">
-        <v>20228690</v>
+        <v>20053421</v>
       </c>
       <c r="J20">
-        <v>-175269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5231,13 +5216,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5267,10 +5252,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5278,7 +5263,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5289,7 +5274,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -5300,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5311,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5322,7 +5307,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5333,7 +5318,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5344,7 +5329,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5355,7 +5340,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -5366,7 +5351,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5377,7 +5362,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5388,7 +5373,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5399,7 +5384,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5410,7 +5395,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5421,7 +5406,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5432,7 +5417,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5443,7 +5428,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5454,7 +5439,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5465,7 +5450,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5536,16 +5521,16 @@
         <v>36</v>
       </c>
       <c r="G2" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>39986</v>
+        <v>40074</v>
       </c>
       <c r="J2">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5568,16 +5553,16 @@
         <v>36</v>
       </c>
       <c r="G3" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>73504</v>
+        <v>74000</v>
       </c>
       <c r="J3">
-        <v>496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5600,16 +5585,16 @@
         <v>36</v>
       </c>
       <c r="G4" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>210705</v>
+        <v>212342</v>
       </c>
       <c r="J4">
-        <v>1637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5632,10 +5617,10 @@
         <v>36</v>
       </c>
       <c r="G5" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>88633</v>
@@ -5664,16 +5649,16 @@
         <v>36</v>
       </c>
       <c r="G6" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>63490988</v>
+        <v>66103815</v>
       </c>
       <c r="J6">
-        <v>2612827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5696,16 +5681,16 @@
         <v>36</v>
       </c>
       <c r="G7" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I7">
-        <v>23265025</v>
+        <v>23862171</v>
       </c>
       <c r="J7">
-        <v>597146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5728,16 +5713,16 @@
         <v>36</v>
       </c>
       <c r="G8" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>294942</v>
+        <v>296656</v>
       </c>
       <c r="J8">
-        <v>1714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5760,10 +5745,10 @@
         <v>36</v>
       </c>
       <c r="G9" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>2728821</v>
@@ -5792,16 +5777,16 @@
         <v>36</v>
       </c>
       <c r="G10" s="2">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I10">
-        <v>4182450</v>
+        <v>4182378</v>
       </c>
       <c r="J10">
-        <v>-72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5824,16 +5809,16 @@
         <v>36</v>
       </c>
       <c r="G11" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>5728190</v>
+        <v>5891162</v>
       </c>
       <c r="J11">
-        <v>162972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5856,16 +5841,16 @@
         <v>36</v>
       </c>
       <c r="G12" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I12">
-        <v>30805604</v>
+        <v>31448346</v>
       </c>
       <c r="J12">
-        <v>642742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5888,16 +5873,16 @@
         <v>36</v>
       </c>
       <c r="G13" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I13">
-        <v>3038965</v>
+        <v>3082338</v>
       </c>
       <c r="J13">
-        <v>43373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5920,16 +5905,16 @@
         <v>36</v>
       </c>
       <c r="G14" s="2">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I14">
-        <v>26060115</v>
+        <v>26782969</v>
       </c>
       <c r="J14">
-        <v>722854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5952,16 +5937,16 @@
         <v>36</v>
       </c>
       <c r="G15" s="2">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I15">
-        <v>8364900</v>
+        <v>8364756</v>
       </c>
       <c r="J15">
-        <v>-144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5984,16 +5969,16 @@
         <v>36</v>
       </c>
       <c r="G16" s="2">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>90548582</v>
+        <v>90656374</v>
       </c>
       <c r="J16">
-        <v>107792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6016,16 +6001,16 @@
         <v>36</v>
       </c>
       <c r="G17" s="2">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I17">
-        <v>6746392</v>
+        <v>6803923</v>
       </c>
       <c r="J17">
-        <v>57531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6048,16 +6033,16 @@
         <v>36</v>
       </c>
       <c r="G18" s="2">
-        <v>44627</v>
+        <v>44673</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I18">
-        <v>4668738</v>
+        <v>4727177</v>
       </c>
       <c r="J18">
-        <v>58439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6080,16 +6065,16 @@
         <v>36</v>
       </c>
       <c r="G19" s="2">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I19">
-        <v>2123364</v>
+        <v>2501678</v>
       </c>
       <c r="J19">
-        <v>378314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6112,16 +6097,16 @@
         <v>36</v>
       </c>
       <c r="G20" s="2">
-        <v>44627</v>
+        <v>44676</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I20">
-        <v>90548582</v>
+        <v>90656374</v>
       </c>
       <c r="J20">
-        <v>107792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6159,22 +6144,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6209,16 +6194,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
         <v>44657</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>363</v>
@@ -6226,16 +6211,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2">
         <v>44657</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>692088</v>
@@ -6243,16 +6228,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2">
         <v>44657</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>4889569</v>
@@ -6260,16 +6245,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2">
         <v>44657</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>49235</v>
@@ -6277,16 +6262,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
         <v>44657</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>3426785</v>
@@ -6294,16 +6279,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2">
         <v>44657</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>3868282</v>
@@ -6311,16 +6296,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2">
         <v>44657</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>487863</v>
@@ -6328,16 +6313,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>44657</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>2590065</v>
@@ -6345,16 +6330,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
         <v>44657</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>222993</v>
@@ -6362,16 +6347,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2">
         <v>44657</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -6379,16 +6364,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <v>44657</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>95778</v>
@@ -6396,16 +6381,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2">
         <v>44657</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>69807</v>
@@ -6413,16 +6398,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2">
         <v>44657</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>63226</v>
@@ -6430,10 +6415,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -6441,16 +6426,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2">
         <v>44657</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>109825</v>
@@ -6458,16 +6443,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2">
         <v>44657</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>3366</v>
@@ -6475,16 +6460,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2">
         <v>44657</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>62547</v>
@@ -6492,16 +6477,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2">
         <v>44657</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>724054</v>
@@ -6509,16 +6494,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>172</v>
@@ -6526,16 +6511,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2">
         <v>44657</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>4227126</v>
@@ -6543,16 +6528,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2">
         <v>44657</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -6560,16 +6545,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2">
         <v>44657</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>554</v>
@@ -6577,16 +6562,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2">
         <v>44657</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>45</v>
@@ -6594,10 +6579,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6605,16 +6590,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2">
         <v>44657</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>133</v>
@@ -6622,10 +6607,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6633,10 +6618,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6689,432 +6674,432 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2">
         <v>44657</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2">
         <v>44657</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>692088</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I3">
-        <v>655614</v>
+        <v>692088</v>
       </c>
       <c r="J3">
-        <v>36474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2">
         <v>44657</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>4889569</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I4">
-        <v>4621780</v>
+        <v>4889569</v>
       </c>
       <c r="J4">
-        <v>267789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2">
         <v>44657</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>49235</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>44946</v>
+        <v>49235</v>
       </c>
       <c r="J5">
-        <v>4289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
         <v>44657</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>3426785</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>3242546</v>
+        <v>3426785</v>
       </c>
       <c r="J6">
-        <v>184239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2">
         <v>44657</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>3868282</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2">
-        <v>44548</v>
+        <v>44657</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>3676090</v>
+        <v>3868282</v>
       </c>
       <c r="J7">
-        <v>192192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2">
         <v>44657</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>487863</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>462337</v>
+        <v>487863</v>
       </c>
       <c r="J8">
-        <v>25526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>44657</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>2590065</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I9">
-        <v>2472792</v>
+        <v>2590065</v>
       </c>
       <c r="J9">
-        <v>117273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
         <v>44657</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>222993</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>175777</v>
+        <v>222993</v>
       </c>
       <c r="J10">
-        <v>47216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2">
         <v>44657</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2">
-        <v>44535</v>
+        <v>44657</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <v>44657</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>95778</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2">
-        <v>44535</v>
+        <v>44657</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I12">
-        <v>86990</v>
+        <v>95778</v>
       </c>
       <c r="J12">
-        <v>8788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2">
         <v>44657</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>69807</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2">
-        <v>44535</v>
+        <v>44657</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>63701</v>
+        <v>69807</v>
       </c>
       <c r="J13">
-        <v>6106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2">
         <v>44657</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>63226</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2">
-        <v>44535</v>
+        <v>44657</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I14">
-        <v>57119</v>
+        <v>63226</v>
       </c>
       <c r="J14">
-        <v>6107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -7125,156 +7110,156 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2">
         <v>44657</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>109825</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2">
-        <v>44535</v>
+        <v>44657</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>98868</v>
+        <v>109825</v>
       </c>
       <c r="J16">
-        <v>10957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2">
         <v>44657</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>3366</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2">
-        <v>44535</v>
+        <v>44657</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I17">
-        <v>2717</v>
+        <v>3366</v>
       </c>
       <c r="J17">
-        <v>649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2">
         <v>44657</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>62547</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2">
-        <v>44535</v>
+        <v>44657</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I18">
-        <v>52031</v>
+        <v>62547</v>
       </c>
       <c r="J18">
-        <v>10516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2">
         <v>44657</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>724054</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I19">
-        <v>681466</v>
+        <v>724054</v>
       </c>
       <c r="J19">
-        <v>42588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2">
         <v>44291</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2">
         <v>44291</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <v>172</v>
@@ -7285,144 +7270,144 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2">
         <v>44657</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>4227126</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2">
-        <v>44608</v>
+        <v>44657</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I21">
-        <v>4034934</v>
+        <v>4227126</v>
       </c>
       <c r="J21">
-        <v>192192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2">
         <v>44657</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2">
-        <v>44530</v>
+        <v>44657</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2">
         <v>44657</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>554</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2">
-        <v>44530</v>
+        <v>44657</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I23">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="J23">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2">
         <v>44657</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2">
-        <v>44530</v>
+        <v>44657</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I24">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -7433,48 +7418,48 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2">
         <v>44657</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2">
-        <v>44530</v>
+        <v>44657</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I26">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -7485,16 +7470,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -7518,13 +7503,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -7532,464 +7517,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>173937</v>
       </c>
       <c r="C2">
-        <v>167832</v>
+        <v>173937</v>
       </c>
       <c r="D2">
-        <v>6105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>18352</v>
       </c>
       <c r="C3">
-        <v>17575</v>
+        <v>18352</v>
       </c>
       <c r="D3">
-        <v>777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>16650</v>
       </c>
       <c r="C4">
-        <v>16095</v>
+        <v>16650</v>
       </c>
       <c r="D4">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>58460</v>
       </c>
       <c r="C5">
-        <v>56055</v>
+        <v>58460</v>
       </c>
       <c r="D5">
-        <v>2405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>151145</v>
       </c>
       <c r="C6">
-        <v>145188</v>
+        <v>151145</v>
       </c>
       <c r="D6">
-        <v>5957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>157805</v>
       </c>
       <c r="C7">
-        <v>150923</v>
+        <v>157805</v>
       </c>
       <c r="D7">
-        <v>6882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>77145</v>
       </c>
       <c r="C8">
-        <v>74444</v>
+        <v>77145</v>
       </c>
       <c r="D8">
-        <v>2701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>107818</v>
       </c>
       <c r="C9">
-        <v>103415</v>
+        <v>107818</v>
       </c>
       <c r="D9">
-        <v>4403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>113109</v>
       </c>
       <c r="C10">
-        <v>108336</v>
+        <v>113109</v>
       </c>
       <c r="D10">
-        <v>4773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>28971</v>
       </c>
       <c r="C11">
-        <v>27787</v>
+        <v>28971</v>
       </c>
       <c r="D11">
-        <v>1184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>344951</v>
       </c>
       <c r="C12">
-        <v>333222</v>
+        <v>344951</v>
       </c>
       <c r="D12">
-        <v>11729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>218115</v>
       </c>
       <c r="C13">
-        <v>210567</v>
+        <v>218115</v>
       </c>
       <c r="D13">
-        <v>7548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>156214</v>
       </c>
       <c r="C14">
-        <v>150738</v>
+        <v>156214</v>
       </c>
       <c r="D14">
-        <v>5476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>10989</v>
       </c>
       <c r="C15">
-        <v>10508</v>
+        <v>10989</v>
       </c>
       <c r="D15">
-        <v>481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>163466</v>
       </c>
       <c r="C16">
-        <v>158064</v>
+        <v>163466</v>
       </c>
       <c r="D16">
-        <v>5402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>157953</v>
       </c>
       <c r="C17">
-        <v>152181</v>
+        <v>157953</v>
       </c>
       <c r="D17">
-        <v>5772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>4921</v>
       </c>
       <c r="C18">
-        <v>4736</v>
+        <v>4921</v>
       </c>
       <c r="D18">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>29193</v>
       </c>
       <c r="C19">
-        <v>27972</v>
+        <v>29193</v>
       </c>
       <c r="D19">
-        <v>1221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>76516</v>
       </c>
       <c r="C20">
-        <v>73741</v>
+        <v>76516</v>
       </c>
       <c r="D20">
-        <v>2775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>116994</v>
       </c>
       <c r="C21">
-        <v>111962</v>
+        <v>116994</v>
       </c>
       <c r="D21">
-        <v>5032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>12506</v>
       </c>
       <c r="C22">
-        <v>12136</v>
+        <v>12506</v>
       </c>
       <c r="D22">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>380804</v>
       </c>
       <c r="C23">
-        <v>367891</v>
+        <v>380804</v>
       </c>
       <c r="D23">
-        <v>12913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>415584</v>
       </c>
       <c r="C24">
-        <v>401783</v>
+        <v>415584</v>
       </c>
       <c r="D24">
-        <v>13801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>190402</v>
       </c>
       <c r="C25">
-        <v>183409</v>
+        <v>190402</v>
       </c>
       <c r="D25">
-        <v>6993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>10138</v>
       </c>
       <c r="C26">
-        <v>9620</v>
+        <v>10138</v>
       </c>
       <c r="D26">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>171125</v>
       </c>
       <c r="C27">
-        <v>164354</v>
+        <v>171125</v>
       </c>
       <c r="D27">
-        <v>6771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>95423</v>
       </c>
       <c r="C28">
-        <v>91612</v>
+        <v>95423</v>
       </c>
       <c r="D28">
-        <v>3811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>14541</v>
       </c>
       <c r="C29">
-        <v>13912</v>
+        <v>14541</v>
       </c>
       <c r="D29">
-        <v>629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>18648</v>
       </c>
       <c r="C30">
-        <v>18019</v>
+        <v>18648</v>
       </c>
       <c r="D30">
-        <v>629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>29082</v>
       </c>
       <c r="C31">
-        <v>27861</v>
+        <v>29082</v>
       </c>
       <c r="D31">
-        <v>1221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>355385</v>
       </c>
       <c r="C32">
-        <v>342472</v>
+        <v>355385</v>
       </c>
       <c r="D32">
-        <v>12913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <v>12802</v>
       </c>
       <c r="C33">
-        <v>12136</v>
+        <v>12802</v>
       </c>
       <c r="D33">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B34">
         <v>64269</v>
       </c>
       <c r="C34">
-        <v>61457</v>
+        <v>64269</v>
       </c>
       <c r="D34">
-        <v>2812</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8013,18 +7998,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8032,10 +8017,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8043,10 +8028,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -8054,10 +8039,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -8065,10 +8050,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8076,10 +8061,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8087,10 +8072,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8098,10 +8083,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8109,10 +8094,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8120,10 +8105,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -8131,10 +8116,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -8142,10 +8127,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -8153,10 +8138,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -8164,10 +8149,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -8175,10 +8160,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -8186,10 +8171,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -8197,10 +8182,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -8208,10 +8193,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -8219,10 +8204,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -8230,10 +8215,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -8241,10 +8226,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -8252,10 +8237,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -8263,10 +8248,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8274,10 +8259,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -8285,10 +8270,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8296,10 +8281,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -8307,10 +8292,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -8337,10 +8322,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8556,22 +8541,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8606,7 +8591,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -8615,7 +8600,7 @@
         <v>44656</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>984</v>
@@ -8623,7 +8608,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -8632,7 +8617,7 @@
         <v>44656</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2586800</v>
@@ -8640,7 +8625,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -8649,7 +8634,7 @@
         <v>44656</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>22673678</v>
@@ -8657,7 +8642,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -8666,7 +8651,7 @@
         <v>44656</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>259468</v>
@@ -8674,7 +8659,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -8683,7 +8668,7 @@
         <v>44656</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>12800774</v>
@@ -8691,7 +8676,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -8700,7 +8685,7 @@
         <v>44656</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>26454428</v>
@@ -8708,7 +8693,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -8717,7 +8702,7 @@
         <v>44656</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>1642551</v>
@@ -8725,7 +8710,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -8734,7 +8719,7 @@
         <v>44656</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>23121169</v>
@@ -8742,7 +8727,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -8751,7 +8736,7 @@
         <v>44656</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>667287</v>
@@ -8759,7 +8744,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -8768,7 +8753,7 @@
         <v>44656</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -8776,7 +8761,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -8785,7 +8770,7 @@
         <v>44673</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>575487</v>
@@ -8793,7 +8778,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -8802,7 +8787,7 @@
         <v>44673</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>436831</v>
@@ -8810,7 +8795,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -8819,7 +8804,7 @@
         <v>44655</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>481377</v>
@@ -8827,7 +8812,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -8836,7 +8821,7 @@
         <v>44655</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>17635</v>
@@ -8844,7 +8829,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -8853,7 +8838,7 @@
         <v>44655</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>646164</v>
@@ -8861,7 +8846,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -8870,7 +8855,7 @@
         <v>43835</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>30259</v>
@@ -8878,7 +8863,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -8887,7 +8872,7 @@
         <v>43835</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>587501</v>
@@ -8895,7 +8880,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -8904,7 +8889,7 @@
         <v>44656</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>2970354</v>
@@ -8912,7 +8897,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -8921,7 +8906,7 @@
         <v>44291</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>316</v>
@@ -8929,7 +8914,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -8938,7 +8923,7 @@
         <v>44656</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>30537864</v>
@@ -8946,7 +8931,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -8955,7 +8940,7 @@
         <v>44655</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -8963,7 +8948,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -8972,7 +8957,7 @@
         <v>44655</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>1492</v>
@@ -8980,7 +8965,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -8989,7 +8974,7 @@
         <v>44655</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>55</v>
@@ -8997,7 +8982,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -9006,7 +8991,7 @@
         <v>43621</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>57</v>
@@ -9014,7 +8999,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -9023,7 +9008,7 @@
         <v>44655</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>209</v>
@@ -9031,7 +9016,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -9042,7 +9027,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -9098,7 +9083,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9107,7 +9092,7 @@
         <v>44656</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>984</v>
@@ -9116,21 +9101,21 @@
         <v>36</v>
       </c>
       <c r="G2" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>951</v>
+        <v>984</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -9139,7 +9124,7 @@
         <v>44656</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2586800</v>
@@ -9148,21 +9133,21 @@
         <v>36</v>
       </c>
       <c r="G3" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I3">
-        <v>2564593</v>
+        <v>2586800</v>
       </c>
       <c r="J3">
-        <v>22207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -9171,7 +9156,7 @@
         <v>44656</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>22673678</v>
@@ -9180,21 +9165,21 @@
         <v>36</v>
       </c>
       <c r="G4" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I4">
-        <v>22513247</v>
+        <v>22673678</v>
       </c>
       <c r="J4">
-        <v>160431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -9203,7 +9188,7 @@
         <v>44656</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>259468</v>
@@ -9212,21 +9197,21 @@
         <v>36</v>
       </c>
       <c r="G5" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>257865</v>
+        <v>259468</v>
       </c>
       <c r="J5">
-        <v>1603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9235,7 +9220,7 @@
         <v>44656</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>12800774</v>
@@ -9244,21 +9229,21 @@
         <v>36</v>
       </c>
       <c r="G6" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>12685604</v>
+        <v>12800774</v>
       </c>
       <c r="J6">
-        <v>115170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -9267,7 +9252,7 @@
         <v>44656</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>26454428</v>
@@ -9276,21 +9261,21 @@
         <v>36</v>
       </c>
       <c r="G7" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>26275793</v>
+        <v>26454428</v>
       </c>
       <c r="J7">
-        <v>178635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9299,7 +9284,7 @@
         <v>44656</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>1642551</v>
@@ -9308,21 +9293,21 @@
         <v>36</v>
       </c>
       <c r="G8" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>1630824</v>
+        <v>1642551</v>
       </c>
       <c r="J8">
-        <v>11727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -9331,7 +9316,7 @@
         <v>44656</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>23121169</v>
@@ -9340,21 +9325,21 @@
         <v>36</v>
       </c>
       <c r="G9" s="2">
-        <v>44620</v>
+        <v>44656</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I9">
-        <v>23027999</v>
+        <v>23121169</v>
       </c>
       <c r="J9">
-        <v>93170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -9363,7 +9348,7 @@
         <v>44656</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>667287</v>
@@ -9372,21 +9357,21 @@
         <v>36</v>
       </c>
       <c r="G10" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>620097</v>
+        <v>667287</v>
       </c>
       <c r="J10">
-        <v>47190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -9395,7 +9380,7 @@
         <v>44656</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -9404,21 +9389,21 @@
         <v>36</v>
       </c>
       <c r="G11" s="2">
-        <v>44531</v>
+        <v>44656</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -9427,7 +9412,7 @@
         <v>44673</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>575487</v>
@@ -9436,21 +9421,21 @@
         <v>36</v>
       </c>
       <c r="G12" s="2">
-        <v>44361</v>
+        <v>44673</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I12">
-        <v>551219</v>
+        <v>575487</v>
       </c>
       <c r="J12">
-        <v>24268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -9459,7 +9444,7 @@
         <v>44673</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>436831</v>
@@ -9468,21 +9453,21 @@
         <v>36</v>
       </c>
       <c r="G13" s="2">
-        <v>44531</v>
+        <v>44673</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>421041</v>
+        <v>436831</v>
       </c>
       <c r="J13">
-        <v>15790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -9491,7 +9476,7 @@
         <v>44655</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>481377</v>
@@ -9500,21 +9485,21 @@
         <v>36</v>
       </c>
       <c r="G14" s="2">
-        <v>44531</v>
+        <v>44655</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I14">
-        <v>467790</v>
+        <v>481377</v>
       </c>
       <c r="J14">
-        <v>13587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -9523,7 +9508,7 @@
         <v>44655</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>17635</v>
@@ -9532,21 +9517,21 @@
         <v>36</v>
       </c>
       <c r="G15" s="2">
-        <v>44531</v>
+        <v>44655</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I15">
-        <v>16872</v>
+        <v>17635</v>
       </c>
       <c r="J15">
-        <v>763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -9555,7 +9540,7 @@
         <v>44655</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>646164</v>
@@ -9564,21 +9549,21 @@
         <v>36</v>
       </c>
       <c r="G16" s="2">
-        <v>44531</v>
+        <v>44655</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>625073</v>
+        <v>646164</v>
       </c>
       <c r="J16">
-        <v>21091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9587,7 +9572,7 @@
         <v>43835</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>30259</v>
@@ -9599,7 +9584,7 @@
         <v>43835</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17">
         <v>30259</v>
@@ -9610,7 +9595,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -9619,7 +9604,7 @@
         <v>43835</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>587501</v>
@@ -9631,7 +9616,7 @@
         <v>43835</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18">
         <v>587501</v>
@@ -9642,7 +9627,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -9651,7 +9636,7 @@
         <v>44656</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>2970354</v>
@@ -9660,21 +9645,21 @@
         <v>36</v>
       </c>
       <c r="G19" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I19">
-        <v>2946169</v>
+        <v>2970354</v>
       </c>
       <c r="J19">
-        <v>24185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -9683,7 +9668,7 @@
         <v>44291</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>316</v>
@@ -9695,7 +9680,7 @@
         <v>44291</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <v>316</v>
@@ -9706,7 +9691,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -9715,7 +9700,7 @@
         <v>44656</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>30537864</v>
@@ -9724,21 +9709,21 @@
         <v>36</v>
       </c>
       <c r="G21" s="2">
-        <v>44609</v>
+        <v>44656</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I21">
-        <v>30359229</v>
+        <v>30537864</v>
       </c>
       <c r="J21">
-        <v>178635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -9747,7 +9732,7 @@
         <v>44655</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -9756,21 +9741,21 @@
         <v>36</v>
       </c>
       <c r="G22" s="2">
-        <v>44530</v>
+        <v>44655</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -9779,7 +9764,7 @@
         <v>44655</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>1492</v>
@@ -9788,21 +9773,21 @@
         <v>36</v>
       </c>
       <c r="G23" s="2">
-        <v>44530</v>
+        <v>44655</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I23">
-        <v>1430</v>
+        <v>1492</v>
       </c>
       <c r="J23">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -9811,7 +9796,7 @@
         <v>44655</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>55</v>
@@ -9820,21 +9805,21 @@
         <v>36</v>
       </c>
       <c r="G24" s="2">
-        <v>44530</v>
+        <v>44655</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -9843,7 +9828,7 @@
         <v>43621</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>57</v>
@@ -9855,7 +9840,7 @@
         <v>43621</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25">
         <v>57</v>
@@ -9866,7 +9851,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -9875,7 +9860,7 @@
         <v>44655</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>209</v>
@@ -9884,21 +9869,21 @@
         <v>36</v>
       </c>
       <c r="G26" s="2">
-        <v>44530</v>
+        <v>44655</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I26">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -9918,7 +9903,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -9951,13 +9936,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -9965,464 +9950,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>868094</v>
       </c>
       <c r="C2">
-        <v>866355</v>
+        <v>868094</v>
       </c>
       <c r="D2">
-        <v>1739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>141155</v>
       </c>
       <c r="C3">
-        <v>140859</v>
+        <v>141155</v>
       </c>
       <c r="D3">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>179894</v>
       </c>
       <c r="C4">
-        <v>178599</v>
+        <v>179894</v>
       </c>
       <c r="D4">
-        <v>1295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>549339</v>
       </c>
       <c r="C5">
-        <v>546268</v>
+        <v>549339</v>
       </c>
       <c r="D5">
-        <v>3071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1451325</v>
       </c>
       <c r="C6">
-        <v>1447366</v>
+        <v>1451325</v>
       </c>
       <c r="D6">
-        <v>3959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>1114033</v>
       </c>
       <c r="C7">
-        <v>1110555</v>
+        <v>1114033</v>
       </c>
       <c r="D7">
-        <v>3478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>468124</v>
       </c>
       <c r="C8">
-        <v>466940</v>
+        <v>468124</v>
       </c>
       <c r="D8">
-        <v>1184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>743293</v>
       </c>
       <c r="C9">
-        <v>740962</v>
+        <v>743293</v>
       </c>
       <c r="D9">
-        <v>2331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>495245</v>
       </c>
       <c r="C10">
-        <v>493432</v>
+        <v>495245</v>
       </c>
       <c r="D10">
-        <v>1813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>173012</v>
       </c>
       <c r="C11">
-        <v>172827</v>
+        <v>173012</v>
       </c>
       <c r="D11">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>2042400</v>
       </c>
       <c r="C12">
-        <v>2038404</v>
+        <v>2042400</v>
       </c>
       <c r="D12">
-        <v>3996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>1396343</v>
       </c>
       <c r="C13">
-        <v>1392384</v>
+        <v>1396343</v>
       </c>
       <c r="D13">
-        <v>3959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>1050874</v>
       </c>
       <c r="C14">
-        <v>1048876</v>
+        <v>1050874</v>
       </c>
       <c r="D14">
-        <v>1998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>109002</v>
       </c>
       <c r="C15">
-        <v>108669</v>
+        <v>109002</v>
       </c>
       <c r="D15">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>1016982</v>
       </c>
       <c r="C16">
-        <v>1015206</v>
+        <v>1016982</v>
       </c>
       <c r="D16">
-        <v>1776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>1269766</v>
       </c>
       <c r="C17">
-        <v>1267583</v>
+        <v>1269766</v>
       </c>
       <c r="D17">
-        <v>2183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>46028</v>
       </c>
       <c r="C18">
-        <v>45991</v>
+        <v>46028</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>261294</v>
       </c>
       <c r="C19">
-        <v>260850</v>
+        <v>261294</v>
       </c>
       <c r="D19">
-        <v>444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>626484</v>
       </c>
       <c r="C20">
-        <v>625004</v>
+        <v>626484</v>
       </c>
       <c r="D20">
-        <v>1480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>814000</v>
       </c>
       <c r="C21">
-        <v>811780</v>
+        <v>814000</v>
       </c>
       <c r="D21">
-        <v>2220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>99715</v>
       </c>
       <c r="C22">
-        <v>99308</v>
+        <v>99715</v>
       </c>
       <c r="D22">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>2536498</v>
       </c>
       <c r="C23">
-        <v>2533205</v>
+        <v>2536498</v>
       </c>
       <c r="D23">
-        <v>3293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>2779181</v>
       </c>
       <c r="C24">
-        <v>2776258</v>
+        <v>2779181</v>
       </c>
       <c r="D24">
-        <v>2923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>1374476</v>
       </c>
       <c r="C25">
-        <v>1371812</v>
+        <v>1374476</v>
       </c>
       <c r="D25">
-        <v>2664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>108854</v>
       </c>
       <c r="C26">
-        <v>108558</v>
+        <v>108854</v>
       </c>
       <c r="D26">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>1142671</v>
       </c>
       <c r="C27">
-        <v>1140229</v>
+        <v>1142671</v>
       </c>
       <c r="D27">
-        <v>2442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>614570</v>
       </c>
       <c r="C28">
-        <v>611610</v>
+        <v>614570</v>
       </c>
       <c r="D28">
-        <v>2960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>110630</v>
       </c>
       <c r="C29">
-        <v>110075</v>
+        <v>110630</v>
       </c>
       <c r="D29">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>71817</v>
       </c>
       <c r="C30">
-        <v>71558</v>
+        <v>71817</v>
       </c>
       <c r="D30">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>179931</v>
       </c>
       <c r="C31">
-        <v>179413</v>
+        <v>179931</v>
       </c>
       <c r="D31">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>2010247</v>
       </c>
       <c r="C32">
-        <v>2005659</v>
+        <v>2010247</v>
       </c>
       <c r="D32">
-        <v>4588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <v>240056</v>
       </c>
       <c r="C33">
-        <v>239834</v>
+        <v>240056</v>
       </c>
       <c r="D33">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B34">
         <v>591852</v>
       </c>
       <c r="C34">
-        <v>590446</v>
+        <v>591852</v>
       </c>
       <c r="D34">
-        <v>1406</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10446,15 +10431,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -10465,7 +10450,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -10476,7 +10461,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -10487,7 +10472,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -10498,7 +10483,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -10509,7 +10494,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -10520,7 +10505,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -10531,7 +10516,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -10542,7 +10527,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -10553,7 +10538,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -10564,7 +10549,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -10575,7 +10560,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -10586,7 +10571,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -10597,7 +10582,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -10608,7 +10593,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -10619,7 +10604,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -10630,7 +10615,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -10641,7 +10626,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -10652,7 +10637,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -10663,7 +10648,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -10674,7 +10659,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -10685,7 +10670,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -10696,7 +10681,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -10707,7 +10692,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -10718,7 +10703,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -10729,7 +10714,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -10740,7 +10725,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -10784,7 +10769,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>44673</v>
@@ -10801,7 +10786,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2">
         <v>44673</v>
@@ -10818,7 +10803,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2">
         <v>44673</v>
@@ -10835,7 +10820,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>44673</v>
@@ -10852,7 +10837,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2">
         <v>44673</v>
@@ -10869,7 +10854,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>44673</v>
@@ -10886,7 +10871,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2">
         <v>44673</v>
@@ -10903,7 +10888,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2">
         <v>44673</v>
@@ -10920,7 +10905,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>44676</v>
@@ -10937,7 +10922,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>44673</v>
@@ -10954,7 +10939,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2">
         <v>44673</v>
@@ -10971,7 +10956,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>44673</v>
@@ -10988,7 +10973,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>44676</v>
@@ -11005,7 +10990,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2">
         <v>44676</v>
@@ -11022,7 +11007,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>44676</v>
@@ -11039,7 +11024,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2">
         <v>44676</v>
@@ -11056,7 +11041,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2">
         <v>44673</v>
@@ -11073,7 +11058,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>44676</v>
@@ -11090,7 +11075,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2">
         <v>44676</v>
@@ -11107,7 +11092,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>0</v>
